--- a/Docs/lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C2789A-3DFB-4176-87D4-59608B77EA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83663B18-0134-4581-837E-61F68FD24CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="2670" windowWidth="31050" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="187">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -157,15 +157,6 @@
       </rPr>
       <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
     </r>
-  </si>
-  <si>
-    <t>Observații</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -305,9 +296,6 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>BVA Condition</t>
   </si>
   <si>
@@ -440,9 +428,6 @@
     <t>TC2_ECP</t>
   </si>
   <si>
-    <t>Acceptat</t>
-  </si>
-  <si>
     <t>description is String</t>
   </si>
   <si>
@@ -458,21 +443,9 @@
     <t>title length ≥ 3</t>
   </si>
   <si>
-    <t>title.length = 3</t>
-  </si>
-  <si>
-    <t>title.length = 2</t>
-  </si>
-  <si>
     <t>title length ≤ 100</t>
   </si>
   <si>
-    <t>title.length = 100</t>
-  </si>
-  <si>
-    <t>title.length = 101</t>
-  </si>
-  <si>
     <t>description is String or null</t>
   </si>
   <si>
@@ -482,12 +455,6 @@
     <t>description length ≤ 500</t>
   </si>
   <si>
-    <t>description.length = 500</t>
-  </si>
-  <si>
-    <t>description.length = 501</t>
-  </si>
-  <si>
     <t>start is valid Date</t>
   </si>
   <si>
@@ -515,12 +482,6 @@
     <t>interval ≥ 0</t>
   </si>
   <si>
-    <t>interval = 0</t>
-  </si>
-  <si>
-    <t>interval = -1</t>
-  </si>
-  <si>
     <t>interval ≥ 1 (for repeating)</t>
   </si>
   <si>
@@ -536,9 +497,6 @@
     <t>id = 1</t>
   </si>
   <si>
-    <t>id = 0</t>
-  </si>
-  <si>
     <t>active is boolean</t>
   </si>
   <si>
@@ -548,9 +506,6 @@
     <t>active = true; active = false</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,9,11</t>
-  </si>
-  <si>
     <t>"Complete report"</t>
   </si>
   <si>
@@ -560,9 +515,6 @@
     <t>Task created successfully</t>
   </si>
   <si>
-    <t>1,2,3,4,5,7,8,10</t>
-  </si>
-  <si>
     <t>"Team meeting"</t>
   </si>
   <si>
@@ -602,12 +554,6 @@
     <t>title is String, length in [3,100]</t>
   </si>
   <si>
-    <t>01. title = null</t>
-  </si>
-  <si>
-    <t>02. title = "" (length = 0)</t>
-  </si>
-  <si>
     <t>03. title = "Ab" (length = 2)</t>
   </si>
   <si>
@@ -623,9 +569,6 @@
     <t>description is String, length ≤ 500</t>
   </si>
   <si>
-    <t>07. description = null</t>
-  </si>
-  <si>
     <t>08. description = "" (length = 0)</t>
   </si>
   <si>
@@ -653,18 +596,12 @@
     <t>15. interval = 1 (with end date set)</t>
   </si>
   <si>
-    <t>16. interval = Integer.MAX_VALUE</t>
-  </si>
-  <si>
     <t>17. id = 0</t>
   </si>
   <si>
     <t>18. id = 1</t>
   </si>
   <si>
-    <t>19. id = Integer.MAX_VALUE</t>
-  </si>
-  <si>
     <t>end &gt; start (for repeating tasks)</t>
   </si>
   <si>
@@ -774,13 +711,176 @@
   </si>
   <si>
     <t>Eroare: Titlul nu poate depăși 100 de caractere (peste limita superioară)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>F01. Adăugarea unui task nou cu detaliile: descrierea, data și ora de început, data și ora de sfârșit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dacă task-ul este repetitiv, atunci se indică intervalul de timp la care se va repeta, dat ca număr de ore și minute.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Task-ul poate fi activ sau nu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Se validează ca data de început să fie ulterioară momentului curent și anterioară datei de sfârșit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF56A8F5"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(Task task)</t>
+    </r>
+  </si>
+  <si>
+    <t>title.length &lt; 3</t>
+  </si>
+  <si>
+    <t>title.length &lt; 100</t>
+  </si>
+  <si>
+    <t>04. title = "Abc" (length = 4)</t>
+  </si>
+  <si>
+    <t>04. title = "Abc" (length = 99)</t>
+  </si>
+  <si>
+    <t>Task adaugat</t>
+  </si>
+  <si>
+    <t>title is not null</t>
+  </si>
+  <si>
+    <t>interval &lt; 0</t>
+  </si>
+  <si>
+    <t>13, 15</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,9,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,9,11, 13, 15, 17</t>
+  </si>
+  <si>
+    <t>08. description = "" (length = 1)</t>
+  </si>
+  <si>
+    <t>description.length &lt;= 500</t>
+  </si>
+  <si>
+    <t>title.length &gt;= 3</t>
+  </si>
+  <si>
+    <t>title.length &lt;= 100</t>
+  </si>
+  <si>
+    <t>interval &gt;= 0</t>
+  </si>
+  <si>
+    <t>description.length &gt; 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id &lt;= 0 </t>
+  </si>
+  <si>
+    <t>09. description = "A...z" (length = 499)</t>
+  </si>
+  <si>
+    <t>16. interval = 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,12 +1028,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -945,6 +1039,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCF8E6D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1489,18 +1601,14 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,6 +1653,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1581,7 +1692,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1593,23 +1719,74 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1617,9 +1794,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1635,71 +1809,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,8 +2124,8 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2024,24 +2138,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="H1" s="27" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2076,7 +2190,7 @@
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2124,41 +2238,43 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" s="97" t="s">
+        <v>163</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="B17" s="98" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="s">
-        <v>15</v>
+      <c r="B18" s="98" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
+      <c r="B19" s="98" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="23" t="s">
-        <v>17</v>
+      <c r="C20" s="97" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2175,7 +2291,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2191,25 +2307,25 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="26"/>
+      <c r="C26" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2227,21 +2343,21 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:O22"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
     <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
@@ -2252,71 +2368,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="G5" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="B5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="G5" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -2324,68 +2440,62 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="55"/>
+        <v>173</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="30">
+        <v>95</v>
+      </c>
+      <c r="K8" s="28">
         <v>45778</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2394,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -2402,27 +2512,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="G9" s="2">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="30">
+        <v>98</v>
+      </c>
+      <c r="K9" s="28">
         <v>45778</v>
       </c>
       <c r="L9" s="2">
@@ -2435,39 +2543,35 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="30">
+        <v>100</v>
+      </c>
+      <c r="K10" s="28">
         <v>45778</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2476,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2484,31 +2588,29 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="2">
-        <v>6.7</v>
+      <c r="H11" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="30">
+        <v>103</v>
+      </c>
+      <c r="K11" s="28">
         <v>45778</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M11" s="2">
         <v>3600</v>
@@ -2517,21 +2619,17 @@
         <v>1</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -2539,27 +2637,21 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -2567,27 +2659,21 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -2595,47 +2681,156 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="2">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="2">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2648,6 +2843,7 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:N6"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2657,630 +2853,699 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:Q29"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" customWidth="1"/>
+    <col min="5" max="5" width="42.21875" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="65" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="51" t="s">
+      <c r="J6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-    </row>
-    <row r="6" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="K6" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="52" t="s">
+      <c r="L6" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="12" t="s">
+    </row>
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="65"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="7">
+        <v>45047</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="65"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60">
+      <c r="K9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="7">
+        <v>45047</v>
+      </c>
+      <c r="O9" s="7">
+        <v>45291</v>
+      </c>
+      <c r="P9" s="7">
+        <v>86400</v>
+      </c>
+      <c r="Q9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="R9" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="65"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29">
+        <v>4</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="7">
+        <v>45047</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="65"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="7">
+        <v>45047</v>
+      </c>
+      <c r="O11" s="7">
+        <v>45291</v>
+      </c>
+      <c r="P11" s="7">
+        <v>86400</v>
+      </c>
+      <c r="Q11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="66"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>6</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="64">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="29">
+        <v>7</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="65"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="65"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="65"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29">
+        <v>9</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="66"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29">
+        <v>10</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="64">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="29">
+        <v>11</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="65"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29">
+        <v>12</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="66"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29">
+        <v>13</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="64">
+        <v>4</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="29">
+        <v>14</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="65"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29">
+        <v>15</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="66"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29">
+        <v>16</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="31"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="64">
+        <v>5</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="29">
+        <v>17</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="65"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29">
+        <v>18</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="64">
+        <v>6</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31" t="s">
+      <c r="D26" s="29">
+        <v>20</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" s="7">
-        <v>45047</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31" t="s">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="65"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29">
+        <v>21</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M9" s="7">
-        <v>45047</v>
-      </c>
-      <c r="N9" s="7">
-        <v>45291</v>
-      </c>
-      <c r="O9" s="7">
-        <v>86400</v>
-      </c>
-      <c r="P9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31" t="s">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="66"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29">
+        <v>22</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="7">
-        <v>45047</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M11" s="7">
-        <v>45047</v>
-      </c>
-      <c r="N11" s="7">
-        <v>45291</v>
-      </c>
-      <c r="O11" s="7">
-        <v>86400</v>
-      </c>
-      <c r="P11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="60">
-        <v>2</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="33"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="61"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="33"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="62"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="33"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="60">
-        <v>3</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="33"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="33"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="33"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="60">
-        <v>4</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="33"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="33"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="33"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="60">
-        <v>5</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="33"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="33"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="33"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="60">
-        <v>6</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="61"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="20"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="19"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="H5:R5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3295,8 +3560,8 @@
   </sheetPr>
   <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3309,121 +3574,121 @@
     <col min="11" max="11" width="14.77734375" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="14" max="14" width="49.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="F4" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="83"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="58"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="80"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>50</v>
+      <c r="C6" s="80" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2">
         <v>45047</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -3432,31 +3697,31 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2">
         <v>45047</v>
@@ -3471,37 +3736,37 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="I8" s="2">
         <v>45047</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -3510,37 +3775,37 @@
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="I9" s="2">
         <v>45047</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2">
         <v>3600</v>
@@ -3549,37 +3814,37 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="I10" s="2">
         <v>45047</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -3588,31 +3853,31 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F11" s="2">
         <v>6</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I11" s="2">
         <v>45047</v>
@@ -3627,37 +3892,37 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F12" s="2">
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I12" s="2">
         <v>45047</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3666,31 +3931,31 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F13" s="2">
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="I13" s="2">
         <v>45047</v>
@@ -3705,15 +3970,15 @@
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -3730,115 +3995,115 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="72"/>
+    </row>
+    <row r="20" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="15" t="s">
+      <c r="D20" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="E20" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="91"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="88" t="s">
+      <c r="F20" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="91"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="90"/>
-    </row>
-    <row r="20" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="85" t="s">
+      <c r="G20" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="H20" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="93"/>
-      <c r="J20" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="86" t="s">
+      <c r="I20" s="76"/>
+      <c r="J20" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="87" t="s">
-        <v>60</v>
+      <c r="M20" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="68" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="87"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" s="14">
         <v>7</v>
       </c>
       <c r="D22" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="82">
+      <c r="H22" s="86">
         <v>45741</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="87"/>
       <c r="J22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -3855,17 +4120,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
@@ -3876,13 +4135,19 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F4:L4"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3896,6 +4161,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -4039,15 +4313,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
   <ds:schemaRefs>
@@ -4058,6 +4323,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4073,12 +4346,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>